--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BB34D0-C1EC-49DD-88EE-920B8FDEAD82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE40F6E3-5BB3-4072-A0A9-35D37C4684F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="98">
   <si>
     <t>##var</t>
   </si>
@@ -262,26 +262,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EEffectType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NormalAttack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FollowUnit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BindUnit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Collider</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -291,6 +275,82 @@
   </si>
   <si>
     <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EUnitPosType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Center</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正中央</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ground</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Front</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正前方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftHand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightHand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponCenter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器中间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器末端</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -378,11 +438,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -659,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -692,8 +752,8 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>82</v>
+      <c r="E1" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -701,13 +761,13 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -816,7 +876,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H9" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J9">
         <v>6</v>
@@ -996,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1062,7 +1122,7 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H32" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J32">
         <v>3</v>
@@ -1170,7 +1230,7 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C41" t="b">
         <v>0</v>
@@ -1179,28 +1239,101 @@
         <v>1</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I41" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="J41">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H42" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I42" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="J42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H43" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="J43">
         <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H44" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H45" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H46" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H47" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H48" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H49" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J49">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE40F6E3-5BB3-4072-A0A9-35D37C4684F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F421DBE0-1C9D-416B-9158-49F190E1995A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="97">
   <si>
     <t>##var</t>
   </si>
@@ -91,9 +91,6 @@
     <t>Bullet</t>
   </si>
   <si>
-    <t>Food</t>
-  </si>
-  <si>
     <t>EActionEventType</t>
   </si>
   <si>
@@ -266,10 +263,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Collider</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Polygon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -351,6 +344,10 @@
   </si>
   <si>
     <t>武器末端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -719,27 +716,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.75" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="18.625" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
-    <col min="11" max="11" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -753,7 +750,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -769,7 +766,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -795,7 +792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -825,7 +822,7 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -842,7 +839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H5" t="s">
         <v>20</v>
       </c>
@@ -850,7 +847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
         <v>21</v>
       </c>
@@ -858,481 +855,465 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H7" t="s">
-        <v>22</v>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H7" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="J7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
       </c>
       <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H9" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="b">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="b">
         <v>0</v>
       </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11">
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>53</v>
+      </c>
+      <c r="J25">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H14" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H15" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>57</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>58</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H30" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H38" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H40" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H41" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H42" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H43" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H44" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H45" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J45">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H16" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H46" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J46">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H18" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" t="s">
-        <v>41</v>
-      </c>
-      <c r="J18">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H19" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" t="s">
-        <v>43</v>
-      </c>
-      <c r="J19">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H20" t="s">
-        <v>44</v>
-      </c>
-      <c r="I20" t="s">
-        <v>45</v>
-      </c>
-      <c r="J20">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" t="s">
-        <v>47</v>
-      </c>
-      <c r="J21">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H22" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" t="s">
-        <v>49</v>
-      </c>
-      <c r="J22">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H23" t="s">
-        <v>50</v>
-      </c>
-      <c r="I23" t="s">
-        <v>51</v>
-      </c>
-      <c r="J23">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" t="b">
-        <v>0</v>
-      </c>
-      <c r="D25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H26" t="s">
-        <v>53</v>
-      </c>
-      <c r="J26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H27" t="s">
-        <v>54</v>
-      </c>
-      <c r="J27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H29" t="s">
-        <v>56</v>
-      </c>
-      <c r="J29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" t="b">
-        <v>0</v>
-      </c>
-      <c r="D30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="s">
-        <v>58</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H31" t="s">
-        <v>59</v>
-      </c>
-      <c r="J31">
-        <v>2</v>
-      </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H32" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J32">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" t="b">
-        <v>0</v>
-      </c>
-      <c r="D33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H34" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H35" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H36" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H37" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" t="b">
-        <v>0</v>
-      </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I38" s="3"/>
-      <c r="J38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H39" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="I39" s="3"/>
-      <c r="J39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H40" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" t="b">
-        <v>0</v>
-      </c>
-      <c r="D41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H42" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H43" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H44" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H45" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H46" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H47" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J47">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H48" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J48">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H49" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J49">
         <v>8</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD832D6C-EC27-4218-97FF-5EAB92A9E64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF2BACB-04D9-46A9-B8D1-1134E912CA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="3870" windowWidth="20850" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="99">
   <si>
     <t>##var</t>
   </si>
@@ -353,6 +353,10 @@
   </si>
   <si>
     <t>Invalid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -721,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -870,463 +874,471 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H8" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="H9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="b">
+      <c r="C10" t="b">
         <v>0</v>
       </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
         <v>23</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I10" t="s">
         <v>24</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" t="s">
-        <v>25</v>
-      </c>
       <c r="J10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J15">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J16">
-        <v>100</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J17">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J18">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J19">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J20">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J21">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
         <v>48</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I23" t="s">
         <v>49</v>
       </c>
-      <c r="J22">
+      <c r="J23">
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>50</v>
       </c>
-      <c r="C24" t="b">
+      <c r="C25" t="b">
         <v>0</v>
       </c>
-      <c r="D24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3" t="s">
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H25" t="s">
-        <v>51</v>
-      </c>
       <c r="J25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H28" t="s">
+        <v>53</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H29" t="s">
         <v>54</v>
       </c>
-      <c r="J28">
+      <c r="J29">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>55</v>
       </c>
-      <c r="C29" t="b">
+      <c r="C30" t="b">
         <v>0</v>
       </c>
-      <c r="D29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
         <v>56</v>
       </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H30" t="s">
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
         <v>57</v>
       </c>
-      <c r="J30">
+      <c r="J31">
         <v>2</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H31" s="3" t="s">
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H32" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="J31">
+      <c r="J32">
         <v>3</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="3" t="s">
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C32" t="b">
+      <c r="C33" t="b">
         <v>0</v>
       </c>
-      <c r="D32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="3" t="s">
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I33" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H33" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="J33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H34" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J34">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H35" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J35">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H36" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H37" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="I37" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J36">
+      <c r="J37">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="3" t="s">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C37" t="b">
+      <c r="C38" t="b">
         <v>0</v>
       </c>
-      <c r="D37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="3" t="s">
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="I37" s="3"/>
-      <c r="J37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H38" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H39" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H40" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J39">
+      <c r="J40">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B40" s="3" t="s">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C40" t="b">
+      <c r="C41" t="b">
         <v>0</v>
       </c>
-      <c r="D40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" s="3" t="s">
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="I41" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="J40">
+      <c r="J41">
         <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H41" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H42" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H43" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J43">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H44" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J44">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H45" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J45">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H46" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J46">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H47" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J47">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="H48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H49" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="I49" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J48">
+      <c r="J49">
         <v>8</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF2BACB-04D9-46A9-B8D1-1134E912CA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="101">
   <si>
     <t>##var</t>
   </si>
@@ -34,6 +41,9 @@
     <t>unique</t>
   </si>
   <si>
+    <t>group</t>
+  </si>
+  <si>
     <t>comment</t>
   </si>
   <si>
@@ -79,24 +89,39 @@
     <t>EUnitType</t>
   </si>
   <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
     <t>Monster</t>
   </si>
   <si>
     <t>NPC</t>
   </si>
   <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>EActionEventType</t>
+  </si>
+  <si>
+    <t>RangeDamage</t>
+  </si>
+  <si>
+    <t>范围伤害</t>
+  </si>
+  <si>
     <t>Bullet</t>
   </si>
   <si>
-    <t>EActionEventType</t>
-  </si>
-  <si>
-    <t>RangeDamage</t>
-  </si>
-  <si>
-    <t>范围伤害</t>
-  </si>
-  <si>
     <t>子弹</t>
   </si>
   <si>
@@ -175,6 +200,9 @@
     <t>ESkillAbstractType</t>
   </si>
   <si>
+    <t>NormalAttack</t>
+  </si>
+  <si>
     <t>ActiveSkill</t>
   </si>
   <si>
@@ -196,175 +224,125 @@
     <t>Box</t>
   </si>
   <si>
+    <t>Polygon</t>
+  </si>
+  <si>
     <t>ESkillIndicatorType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TargetOnly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Circle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单一目标指示器</t>
+  </si>
+  <si>
+    <t>圆形指示器</t>
   </si>
   <si>
     <t>Umbrella</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单一目标指示器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圆形指示器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>扇形指示器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>范围指示器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SingleLine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>单线指示器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EInputType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Invaild</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>KeyDown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>KeyUp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NormalAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Polygon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EUnitPosType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Head</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>头顶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Center</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>正中央</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Ground</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>底部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Front</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>正前方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LeftHand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>左手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RightHand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>右手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>WeaponStart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>武器前端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>WeaponCenter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>武器中间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>WeaponEnd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>武器末端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invalid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAreaType</t>
+  </si>
+  <si>
+    <t>Water</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,22 +351,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,12 +504,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -425,9 +718,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -438,30 +973,74 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -719,19 +1298,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="20.75" customWidth="1"/>
@@ -745,7 +1324,7 @@
     <col min="11" max="11" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -758,24 +1337,24 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>75</v>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -786,54 +1365,54 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="99" customHeight="1" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -841,513 +1420,547 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>97</v>
+      <c r="H4" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H5" s="3" t="s">
-        <v>96</v>
+    <row r="5" spans="8:10">
+      <c r="H5" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="8:10">
       <c r="H6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="8:10">
       <c r="H7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H8" s="3" t="s">
-        <v>98</v>
+    <row r="8" spans="8:10">
+      <c r="H8" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="J8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H9" s="3" t="s">
-        <v>95</v>
+    <row r="9" spans="8:10">
+      <c r="H9" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="J9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="b">
+    <row r="10" spans="8:10">
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="b">
         <v>0</v>
       </c>
-      <c r="D10" t="b">
+      <c r="D11" t="b">
         <v>1</v>
       </c>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10">
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11">
+    <row r="12" spans="8:10">
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12">
+    <row r="13" spans="8:10">
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13">
+    <row r="14" spans="8:10">
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14">
+    <row r="15" spans="8:10">
+      <c r="H15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15">
+    <row r="16" spans="8:10">
+      <c r="H16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H16" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16">
+    <row r="17" spans="8:10">
+      <c r="H17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H17" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" t="s">
-        <v>37</v>
-      </c>
-      <c r="J17">
+    <row r="18" spans="8:10">
+      <c r="H18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H18" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18">
+    <row r="19" spans="8:10">
+      <c r="H19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19">
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H19" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" t="s">
-        <v>41</v>
-      </c>
-      <c r="J19">
+    <row r="20" spans="8:10">
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H20" t="s">
-        <v>42</v>
-      </c>
-      <c r="I20" t="s">
-        <v>43</v>
-      </c>
-      <c r="J20">
+    <row r="21" spans="8:10">
+      <c r="H21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H21" t="s">
-        <v>44</v>
-      </c>
-      <c r="I21" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21">
+    <row r="22" spans="8:10">
+      <c r="H22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" t="s">
+        <v>51</v>
+      </c>
+      <c r="J22">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" t="s">
-        <v>47</v>
-      </c>
-      <c r="J22">
+    <row r="23" spans="8:10">
+      <c r="H23" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H23" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J23">
+    <row r="24" spans="8:10">
+      <c r="H24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24">
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" t="b">
+    <row r="26" spans="2:10">
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="b">
         <v>0</v>
       </c>
-      <c r="D25" t="b">
+      <c r="D26" t="b">
         <v>1</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="8:10">
+      <c r="H27" t="s">
+        <v>58</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="8:10">
+      <c r="H28" t="s">
+        <v>59</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="8:10">
+      <c r="H29" t="s">
+        <v>60</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="8:10">
+      <c r="H30" t="s">
+        <v>61</v>
+      </c>
+      <c r="J30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>63</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="8:11">
+      <c r="H32" t="s">
+        <v>64</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="8:11">
+      <c r="H33" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="8:10">
+      <c r="H35" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="8:10">
+      <c r="H36" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="8:10">
+      <c r="H37" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I37" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J25">
+      <c r="J37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="8:10">
+      <c r="H38" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H26" t="s">
-        <v>51</v>
-      </c>
-      <c r="J26">
+      <c r="H39" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I39" s="5"/>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="8:10">
+      <c r="H40" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I40" s="5"/>
+      <c r="J40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="8:10">
+      <c r="H41" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J41">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H27" t="s">
-        <v>52</v>
-      </c>
-      <c r="J27">
+    <row r="42" spans="2:10">
+      <c r="B42" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" t="b">
+        <v>0</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="8:10">
+      <c r="H43" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="8:10">
+      <c r="H44" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="8:10">
+      <c r="H45" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J45">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H28" t="s">
-        <v>53</v>
-      </c>
-      <c r="J28">
+    <row r="46" spans="8:10">
+      <c r="H46" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J46">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H29" t="s">
-        <v>54</v>
-      </c>
-      <c r="J29">
+    <row r="47" spans="8:10">
+      <c r="H47" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J47">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" t="b">
+    <row r="48" spans="8:10">
+      <c r="H48" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="8:10">
+      <c r="H49" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="8:10">
+      <c r="H50" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="2:10">
+      <c r="B51" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" t="b">
         <v>0</v>
       </c>
-      <c r="D30" t="b">
+      <c r="D51" t="b">
         <v>1</v>
       </c>
-      <c r="H30" t="s">
-        <v>56</v>
-      </c>
-      <c r="J30">
+      <c r="H51" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I51" s="5"/>
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="8:10">
+      <c r="H52" t="s">
+        <v>100</v>
+      </c>
+      <c r="J52">
         <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H31" t="s">
-        <v>57</v>
-      </c>
-      <c r="J31">
-        <v>2</v>
-      </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H32" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J32">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" t="b">
-        <v>0</v>
-      </c>
-      <c r="D33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H34" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H35" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H36" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H37" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" t="b">
-        <v>0</v>
-      </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I38" s="3"/>
-      <c r="J38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H39" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I39" s="3"/>
-      <c r="J39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H40" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C41" t="b">
-        <v>0</v>
-      </c>
-      <c r="D41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H42" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H43" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H44" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H45" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H46" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H47" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J47">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H48" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J48">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H49" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J49">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -86,7 +86,7 @@
     <t>注释</t>
   </si>
   <si>
-    <t>EUnitType</t>
+    <t>UnitType</t>
   </si>
   <si>
     <t>Invalid</t>
@@ -110,7 +110,7 @@
     <t>Area</t>
   </si>
   <si>
-    <t>EActionEventType</t>
+    <t>ActionEventType</t>
   </si>
   <si>
     <t>RangeDamage</t>
@@ -197,7 +197,7 @@
     <t>恢复材质</t>
   </si>
   <si>
-    <t>ESkillAbstractType</t>
+    <t>SkillAbstractType</t>
   </si>
   <si>
     <t>NormalAttack</t>
@@ -215,7 +215,7 @@
     <t>MountSkill</t>
   </si>
   <si>
-    <t>EColliderType</t>
+    <t>ColliderType</t>
   </si>
   <si>
     <t>Circle</t>
@@ -227,7 +227,7 @@
     <t>Polygon</t>
   </si>
   <si>
-    <t>ESkillIndicatorType</t>
+    <t>SkillIndicatorType</t>
   </si>
   <si>
     <t>TargetOnly</t>
@@ -257,7 +257,7 @@
     <t>单线指示器</t>
   </si>
   <si>
-    <t>EInputType</t>
+    <t>InputType</t>
   </si>
   <si>
     <t>Invaild</t>
@@ -269,7 +269,7 @@
     <t>KeyUp</t>
   </si>
   <si>
-    <t>EUnitPosType</t>
+    <t>UnitPosType</t>
   </si>
   <si>
     <t>Head</t>
@@ -326,7 +326,7 @@
     <t>武器末端</t>
   </si>
   <si>
-    <t>EAreaType</t>
+    <t>AreaType</t>
   </si>
   <si>
     <t>Water</t>
@@ -1306,8 +1306,8 @@
   <sheetPr/>
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>

--- a/Unity/Assets/Config/Excel/__enums__.xlsx
+++ b/Unity/Assets/Config/Excel/__enums__.xlsx
@@ -239,7 +239,7 @@
     <t>圆形指示器</t>
   </si>
   <si>
-    <t>Umbrella</t>
+    <t>Sector</t>
   </si>
   <si>
     <t>扇形指示器</t>
@@ -1306,8 +1306,8 @@
   <sheetPr/>
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
